--- a/fichiers_xls/test_generated.xlsx
+++ b/fichiers_xls/test_generated.xlsx
@@ -4,10 +4,11 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlfn_T_TEST" hidden="0" function="0" vbProcedure="0">NA()</definedName>
@@ -43,12 +44,14 @@
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <color rgb="FF969696"/>
       <sz val="10"/>
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="1"/>
       <color rgb="FFFF00FF"/>
@@ -56,6 +59,7 @@
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -334,8 +338,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.303115961083355"/>
-          <y val="0.0220736629667003"/>
+          <x val="0.303258309343104"/>
+          <y val="0.0224605678233438"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -354,10 +358,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0134104654220352"/>
-          <y val="0.124621594349142"/>
-          <w val="0.96765711280568"/>
-          <h val="0.8650353178607471"/>
+          <x val="0.0133472912850039"/>
+          <y val="0.124668769716088"/>
+          <w val="0.967416906568961"/>
+          <h val="0.864605678233438"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -403,6 +407,7 @@
                 </a:r>
               </a:p>
             </txPr>
+            <dLblPos val="outEnd"/>
             <showLegendKey val="0"/>
             <showVal val="0"/>
             <showCatName val="0"/>
@@ -622,17 +627,17 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="95729218"/>
-        <axId val="35544237"/>
+        <axId val="80292468"/>
+        <axId val="61949105"/>
       </barChart>
       <catAx>
-        <axId val="95729218"/>
+        <axId val="80292468"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
         <delete val="0"/>
         <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="0"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -661,7 +666,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="35544237"/>
+        <crossAx val="61949105"/>
         <crossesAt val="0"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -669,7 +674,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="35544237"/>
+        <axId val="61949105"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -713,7 +718,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="95729218"/>
+        <crossAx val="80292468"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -746,9 +751,9 @@
     </from>
     <to>
       <col>109</col>
-      <colOff>48960</colOff>
+      <colOff>47880</colOff>
       <row>27</row>
-      <rowOff>92520</rowOff>
+      <rowOff>91440</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1058,11 +1063,11 @@
   </sheetPr>
   <dimension ref="A1:DJ15"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO4" activeCellId="0" sqref="AO4"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AO4" activeCellId="1" sqref="B7 AO4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.01953125" defaultRowHeight="16.05" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.07421875" defaultRowHeight="16.05" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="16.2" customWidth="1" style="18" min="6" max="6"/>
     <col width="14.38" customWidth="1" style="19" min="7" max="7"/>
@@ -6054,134 +6059,134 @@
     </row>
     <row r="15" ht="16.05" customHeight="1" s="21">
       <c r="L15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="M15" s="31" t="n"/>
       <c r="N15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="O15" s="31" t="n"/>
       <c r="P15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="Q15" s="31" t="n"/>
       <c r="R15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="S15" s="31" t="n"/>
       <c r="T15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="U15" s="31" t="n"/>
       <c r="V15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="W15" s="31" t="n"/>
       <c r="X15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="Y15" s="31" t="n"/>
       <c r="Z15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="AA15" s="31" t="n"/>
       <c r="AB15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="AC15" s="31" t="n"/>
       <c r="AD15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE15" s="31" t="n"/>
       <c r="AF15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="AG15" s="31" t="n"/>
       <c r="AH15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="AI15" s="31" t="n"/>
       <c r="AJ15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="AK15" s="31" t="n"/>
       <c r="AL15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="AM15" s="32" t="n"/>
       <c r="AN15" s="31" t="n"/>
       <c r="AO15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="AP15" s="31" t="n"/>
       <c r="AQ15" s="31" t="n"/>
       <c r="AR15" s="31" t="n"/>
       <c r="AS15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="AT15" s="31" t="n"/>
       <c r="AU15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="AV15" s="31" t="n"/>
       <c r="AW15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="AX15" s="31" t="n"/>
       <c r="AY15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="AZ15" s="31" t="n"/>
       <c r="BA15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="BB15" s="31" t="n"/>
       <c r="BC15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="BD15" s="31" t="n"/>
       <c r="BE15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="BF15" s="31" t="n"/>
       <c r="BG15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="BH15" s="31" t="n"/>
       <c r="BI15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="BJ15" s="31" t="n"/>
       <c r="BK15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="BL15" s="31" t="n"/>
       <c r="BM15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="BN15" s="31" t="n"/>
       <c r="BO15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="BP15" s="31" t="n"/>
       <c r="BQ15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="BR15" s="31" t="n"/>
       <c r="BS15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="BT15" s="31" t="n"/>
       <c r="BU15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="BV15" s="31" t="n"/>
       <c r="BW15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="BX15" s="31" t="n"/>
       <c r="BY15" s="31" t="e">
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="BZ15" s="32" t="n"/>
     </row>
@@ -7659,4 +7664,61 @@
   </headerFooter>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetData>
+    <row r="1" ht="12.8" customHeight="1" s="21">
+      <c r="A1" s="18" t="inlineStr">
+        <is>
+          <t>Test !!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="21">
+      <c r="C4" s="18" t="inlineStr">
+        <is>
+          <t>Il doit y avoir des notes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="12.8" customHeight="1" s="21">
+      <c r="B6" s="18" t="inlineStr">
+        <is>
+          <t>zdzd</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="12.8" customHeight="1" s="21">
+      <c r="B7" s="18" t="inlineStr">
+        <is>
+          <t>zdzd</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
 </file>